--- a/Data/Lab-linked/OutletConc_W0toW17.xlsx
+++ b/Data/Lab-linked/OutletConc_W0toW17.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10665"/>
+    <workbookView xWindow="1660" yWindow="4020" windowWidth="21520" windowHeight="10660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>AO_W0_1</t>
   </si>
@@ -232,6 +243,18 @@
   </si>
   <si>
     <t>Conc.mug/L</t>
+  </si>
+  <si>
+    <t>Vol.SPE.mL</t>
+  </si>
+  <si>
+    <t>16_1</t>
+  </si>
+  <si>
+    <t>17_1</t>
+  </si>
+  <si>
+    <t>Conc.in500uL</t>
   </si>
 </sst>
 </file>
@@ -241,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +299,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -345,6 +381,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,22 +724,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K42" sqref="K1:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9" style="14"/>
+    <col min="6" max="6" width="14.796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="14"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -702,8 +768,14 @@
       <c r="I1" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +802,14 @@
       <c r="I2" s="13">
         <v>1.9307675110341559E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="15">
+        <v>570</v>
+      </c>
+      <c r="K2" s="23">
+        <v>140.02583799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,8 +836,14 @@
       <c r="I3" s="13">
         <v>0.28941745465391355</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="16">
+        <v>1910</v>
+      </c>
+      <c r="K3" s="24">
+        <v>12965.55048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,8 +870,14 @@
       <c r="I4" s="13">
         <v>0.1906390030341534</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="16">
+        <v>1910</v>
+      </c>
+      <c r="K4" s="24">
+        <v>12531.50656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,8 +904,14 @@
       <c r="I5" s="13">
         <v>0.33354049684495468</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="16">
+        <v>1800</v>
+      </c>
+      <c r="K5" s="24">
+        <v>16999.74338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -842,8 +938,14 @@
       <c r="I6" s="13">
         <v>3.9040273337180749E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="17">
+        <v>2025</v>
+      </c>
+      <c r="K6" s="25">
+        <v>2110.431298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -870,8 +972,14 @@
       <c r="I7" s="13">
         <v>0.47086449454481122</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="17">
+        <v>1180</v>
+      </c>
+      <c r="K7" s="25">
+        <v>10426.168240000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -898,8 +1006,14 @@
       <c r="I8" s="13">
         <v>0.9380994896140995</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="17">
+        <v>2455</v>
+      </c>
+      <c r="K8" s="25">
+        <v>26356.22308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -926,8 +1040,14 @@
       <c r="I9" s="13">
         <v>1.8804581438114591E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="15">
+        <v>1275</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1111.5904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -954,8 +1074,14 @@
       <c r="I10" s="13">
         <v>9.2943943857017458E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="15">
+        <v>470</v>
+      </c>
+      <c r="K10" s="23">
+        <v>235.57292799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -982,8 +1108,14 @@
       <c r="I11" s="13">
         <v>7.7148715846483196E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="17">
+        <v>800</v>
+      </c>
+      <c r="K11" s="25">
+        <v>2869.5918710000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1142,14 @@
       <c r="I12" s="13">
         <v>1.8841889227963773E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="15">
+        <v>800</v>
+      </c>
+      <c r="K12" s="23">
+        <v>650.42737150000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1038,8 +1176,14 @@
       <c r="I13" s="13">
         <v>2.1512231940660734E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="15">
+        <v>1590</v>
+      </c>
+      <c r="K13" s="23">
+        <v>228.1563629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1066,8 +1210,14 @@
       <c r="I14" s="13">
         <v>2.5362810652933766E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="15">
+        <v>980</v>
+      </c>
+      <c r="K14" s="23">
+        <v>40.268999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1244,14 @@
       <c r="I15" s="13">
         <v>0.15285239343692461</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="17">
+        <v>800</v>
+      </c>
+      <c r="K15" s="25">
+        <v>7138.1512679999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1124,8 +1280,14 @@
       <c r="I16" s="13">
         <v>0.16980477682858722</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="17">
+        <v>550</v>
+      </c>
+      <c r="K16" s="25">
+        <v>5605.7516059999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1152,8 +1314,14 @@
       <c r="I17" s="13">
         <v>2.3227650620702284E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="15">
+        <v>1310</v>
+      </c>
+      <c r="K17" s="23">
+        <v>28.733692619999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1180,8 +1348,14 @@
       <c r="I18" s="13">
         <v>4.0479514778087797E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="15">
+        <v>925</v>
+      </c>
+      <c r="K18" s="23">
+        <v>174.6505688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1208,8 +1382,14 @@
       <c r="I19" s="13">
         <v>1.2085039031620674E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="15">
+        <v>865</v>
+      </c>
+      <c r="K19" s="23">
+        <v>216.6873095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1236,8 +1416,14 @@
       <c r="I20" s="13">
         <v>5.7379140573352019E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="15">
+        <v>945</v>
+      </c>
+      <c r="K20" s="23">
+        <v>173.68058629999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1264,8 +1450,14 @@
       <c r="I21" s="13">
         <v>1.1669886092399153</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="17">
+        <v>545</v>
+      </c>
+      <c r="K21" s="25">
+        <v>14571.50265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1292,8 +1484,14 @@
       <c r="I22" s="13">
         <v>0.24303368245311169</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="17">
+        <v>800</v>
+      </c>
+      <c r="K22" s="25">
+        <v>9749.0341150000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1320,8 +1518,14 @@
       <c r="I23" s="13">
         <v>0.18288118257202718</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="17">
+        <v>810</v>
+      </c>
+      <c r="K23" s="25">
+        <v>10187.021779999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1348,8 +1552,14 @@
       <c r="I24" s="13">
         <v>1.3636694477507877E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="15">
+        <v>920</v>
+      </c>
+      <c r="K24" s="23">
+        <v>472.87437160000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1376,8 +1586,14 @@
       <c r="I25" s="13">
         <v>3.2061094480819466E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="16">
+        <v>620</v>
+      </c>
+      <c r="K25" s="24">
+        <v>2100.571316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1404,8 +1620,14 @@
       <c r="I26" s="13">
         <v>4.5136531347528167E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="16">
+        <v>920</v>
+      </c>
+      <c r="K26" s="24">
+        <v>3067.18658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1654,14 @@
       <c r="I27" s="13">
         <v>0.13682305423929583</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="16">
+        <v>610</v>
+      </c>
+      <c r="K27" s="24">
+        <v>3159.6320049999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1460,8 +1688,14 @@
       <c r="I28" s="13">
         <v>6.2430192527208501E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="16">
+        <v>630</v>
+      </c>
+      <c r="K28" s="24">
+        <v>3481.070753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1488,8 +1722,14 @@
       <c r="I29" s="13">
         <v>1.5016998688453694E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="15">
+        <v>870</v>
+      </c>
+      <c r="K29" s="23">
+        <v>649.42793719999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1514,8 +1754,14 @@
         <v>4.4598480523365636</v>
       </c>
       <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="16">
+        <v>870</v>
+      </c>
+      <c r="K30" s="26">
+        <v>3880.067806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1542,8 +1788,14 @@
       <c r="I31" s="13">
         <v>0.1470043884913072</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="15">
+        <v>230</v>
+      </c>
+      <c r="K31" s="23">
+        <v>718.31443839999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1568,8 +1820,14 @@
         <v>1.8969084990266599E-2</v>
       </c>
       <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="18">
+        <v>970</v>
+      </c>
+      <c r="K32" s="20">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1594,8 +1852,14 @@
         <v>1.098717504047019E-2</v>
       </c>
       <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="18">
+        <v>680</v>
+      </c>
+      <c r="K33" s="20">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1620,8 +1884,14 @@
         <v>2.4591845017175002E-2</v>
       </c>
       <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="18">
+        <v>1200</v>
+      </c>
+      <c r="K34" s="20">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1646,8 +1916,14 @@
         <v>2.7985134468834667E-2</v>
       </c>
       <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="18">
+        <v>600</v>
+      </c>
+      <c r="K35" s="20">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1672,8 +1948,14 @@
         <v>6.7997784985885374</v>
       </c>
       <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="19">
+        <v>520</v>
+      </c>
+      <c r="K36" s="21">
+        <v>3535.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1698,8 +1980,14 @@
         <v>16.811708232570375</v>
       </c>
       <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="19">
+        <v>560</v>
+      </c>
+      <c r="K37" s="21">
+        <v>9414.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1724,8 +2012,14 @@
         <v>1.0188672368073255</v>
       </c>
       <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="18">
+        <v>1032</v>
+      </c>
+      <c r="K38" s="20">
+        <v>1051.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1750,8 +2044,20 @@
         <v>0.14891468566610572</v>
       </c>
       <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="15">
+        <v>1050</v>
+      </c>
+      <c r="K39" s="22">
+        <v>156.36000000000001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1778,8 +2084,20 @@
       <c r="I40" s="13">
         <v>8.5207701588955749E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="15">
+        <v>390</v>
+      </c>
+      <c r="K40" s="23">
+        <v>65.228098529999997</v>
+      </c>
+      <c r="M40" s="20">
+        <v>62.67</v>
+      </c>
+      <c r="N40" s="23">
+        <v>27.339834849999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1806,8 +2124,21 @@
       <c r="I41" s="13">
         <v>1.5898865084770394E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="18">
+        <v>2250</v>
+      </c>
+      <c r="K41" s="27">
+        <f>AVERAGE(M40:M42)</f>
+        <v>88.98</v>
+      </c>
+      <c r="M41" s="20">
+        <v>87.8</v>
+      </c>
+      <c r="N41" s="23">
+        <v>54.212932670000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1834,6 +2165,31 @@
       <c r="I42" s="13">
         <v>1.5051721114822258E-2</v>
       </c>
+      <c r="J42" s="18">
+        <v>2233</v>
+      </c>
+      <c r="K42" s="27">
+        <f>AVERAGE(N40:N42)</f>
+        <v>36.443325043333338</v>
+      </c>
+      <c r="M42" s="22">
+        <v>116.47</v>
+      </c>
+      <c r="N42" s="23">
+        <v>27.777207610000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
